--- a/OutZone/Time Table.xlsx
+++ b/OutZone/Time Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iban\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Aa Uni\Design and Development of Videogames\Project1\Project-1-Team-SUMHC-Pro-Name\OutZone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Move camera whit player move</t>
   </si>
   <si>
-    <t>Add collisions to levels 1,2 and 3</t>
-  </si>
-  <si>
     <t>Add player animations</t>
   </si>
   <si>
@@ -174,6 +171,12 @@
   </si>
   <si>
     <t xml:space="preserve">Level 4 collisions </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Add collisions to levels 1, 2 and 3</t>
   </si>
 </sst>
 </file>
@@ -235,6 +238,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C2:F49">
   <autoFilter ref="C2:F49"/>
+  <sortState ref="C3:F49">
+    <sortCondition ref="C2:C49"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Task" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Member"/>
@@ -248,6 +254,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="I5:J9" totalsRowShown="0">
   <autoFilter ref="I5:J9"/>
+  <sortState ref="I6:J9">
+    <sortCondition ref="I5:I9"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" name="Member"/>
     <tableColumn id="2" name="Total hours" dataDxfId="0">
@@ -523,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,64 +561,64 @@
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -621,118 +630,118 @@
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <f>SUMIF(D3:D45,"=Sergi Pérez",F3:F45)</f>
-        <v>45</v>
+        <f>SUMIF(D2:D44,"=Iban Mas",F2:F44)</f>
+        <v>69.5</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <f>SUMIF(D3:D45,"=Iban Mas",F3:F45)</f>
-        <v>69.5</v>
+        <f>SUMIF(D2:D46,"=Oriol Rodríguez",F2:F46)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <f>SUMIF(D3:D45,"=Oriol Rodríguez",F3:F45)</f>
-        <v>39</v>
+        <f>SUMIF(D5:D47,"=Sergi Pérez",F5:F47)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>1.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -740,16 +749,16 @@
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
@@ -757,46 +766,46 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -810,7 +819,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -824,7 +833,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -833,88 +842,88 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -922,52 +931,52 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -978,27 +987,27 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -1006,187 +1015,190 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>5</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>49</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49">
         <f>SUM(E3:E48)</f>
         <v>179</v>
